--- a/GNFA/Entrega/Matriculados/Estadísticas Matriculados 2023 UNAL.xlsx
+++ b/GNFA/Entrega/Matriculados/Estadísticas Matriculados 2023 UNAL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberto\Documents\Sistema Estadistico\Repositorios de GitHub\SolicitudesONE\GNFA\Entrega\Matriculados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A031EC42-58B4-4580-B122-BAEA15723196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2E605F-949C-4ECA-88AC-7E255FF96510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,27 @@
     <sheet name="Matriculados x Programa" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Matriculados x Programa'!$A$3:$F$455</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Matriculados x Programa'!$A$2:$G$459</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="336">
   <si>
     <t>Periodo</t>
   </si>
@@ -1019,6 +1032,21 @@
   </si>
   <si>
     <t xml:space="preserve">Total Matriculados </t>
+  </si>
+  <si>
+    <t>2023-2</t>
+  </si>
+  <si>
+    <t>Periodo 2023-2</t>
+  </si>
+  <si>
+    <t>Acción Sin Daño y Construcción de Paz</t>
+  </si>
+  <si>
+    <t>Sistemas</t>
+  </si>
+  <si>
+    <t>Mantenimiento</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1101,14 +1129,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1414,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H6" sqref="H5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,6 +1476,14 @@
         <v>57058</v>
       </c>
     </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" s="6">
+        <v>55658</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1449,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0C1DA2-A5A6-4690-8E4A-683CB1CD7CCC}">
-  <dimension ref="B2:E12"/>
+  <dimension ref="B2:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,99 +1502,130 @@
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="7"/>
       <c r="C3" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6">
         <v>33844</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="11">
+        <v>33064</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="6">
         <v>206</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="11">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="6">
         <v>173</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="11">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="6">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="6">
         <v>241</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="11">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="6">
         <v>5630</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="11">
+        <v>5492</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="6">
         <v>1215</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="11">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="6">
         <v>12895</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="11">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="6">
         <v>2783</v>
       </c>
+      <c r="D12" s="11">
+        <v>2793</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1563,7 +1636,7 @@
   <dimension ref="B2:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,30 +1645,34 @@
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>330</v>
       </c>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="3" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
@@ -1610,6 +1687,9 @@
       <c r="E4" s="6">
         <v>40</v>
       </c>
+      <c r="F4" s="11">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -1624,6 +1704,9 @@
       <c r="E5" s="6">
         <v>133</v>
       </c>
+      <c r="F5" s="11">
+        <v>132</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
@@ -1638,6 +1721,9 @@
       <c r="E6" s="6">
         <v>474</v>
       </c>
+      <c r="F6" s="11">
+        <v>510</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -1652,6 +1738,9 @@
       <c r="E7" s="6">
         <v>854</v>
       </c>
+      <c r="F7" s="11">
+        <v>846</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
@@ -1666,6 +1755,9 @@
       <c r="E8" s="6">
         <v>213</v>
       </c>
+      <c r="F8" s="11">
+        <v>185</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
@@ -1680,6 +1772,9 @@
       <c r="E9" s="6">
         <v>400</v>
       </c>
+      <c r="F9" s="11">
+        <v>381</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
@@ -1694,6 +1789,9 @@
       <c r="E10" s="6">
         <v>555</v>
       </c>
+      <c r="F10" s="11">
+        <v>596</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
@@ -1708,6 +1806,9 @@
       <c r="E11" s="6">
         <v>744</v>
       </c>
+      <c r="F11" s="11">
+        <v>686</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
@@ -1722,6 +1823,9 @@
       <c r="E12" s="6">
         <v>126</v>
       </c>
+      <c r="F12" s="11">
+        <v>121</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
@@ -1736,6 +1840,9 @@
       <c r="E13" s="6">
         <v>727</v>
       </c>
+      <c r="F13" s="11">
+        <v>750</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
@@ -1750,6 +1857,9 @@
       <c r="E14" s="6">
         <v>925</v>
       </c>
+      <c r="F14" s="11">
+        <v>856</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
@@ -1764,6 +1874,9 @@
       <c r="E15" s="6">
         <v>39</v>
       </c>
+      <c r="F15" s="11">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
@@ -1778,8 +1891,11 @@
       <c r="E16" s="6">
         <v>99</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>2</v>
       </c>
@@ -1792,8 +1908,11 @@
       <c r="E17" s="6">
         <v>2640</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="11">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>2</v>
       </c>
@@ -1806,8 +1925,11 @@
       <c r="E18" s="6">
         <v>3760</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="11">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>2</v>
       </c>
@@ -1820,8 +1942,11 @@
       <c r="E19" s="6">
         <v>856</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="11">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>2</v>
       </c>
@@ -1834,8 +1959,11 @@
       <c r="E20" s="6">
         <v>2998</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="11">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>2</v>
       </c>
@@ -1848,8 +1976,11 @@
       <c r="E21" s="6">
         <v>4369</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="11">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1862,8 +1993,11 @@
       <c r="E22" s="6">
         <v>1599</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="11">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>2</v>
       </c>
@@ -1876,8 +2010,11 @@
       <c r="E23" s="6">
         <v>842</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="11">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>2</v>
       </c>
@@ -1890,8 +2027,11 @@
       <c r="E24" s="6">
         <v>7197</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="11">
+        <v>7071</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>2</v>
       </c>
@@ -1904,8 +2044,11 @@
       <c r="E25" s="6">
         <v>2669</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="11">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>2</v>
       </c>
@@ -1918,8 +2061,11 @@
       <c r="E26" s="6">
         <v>1107</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="11">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>2</v>
       </c>
@@ -1932,8 +2078,11 @@
       <c r="E27" s="6">
         <v>651</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="11">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1946,8 +2095,11 @@
       <c r="E28" s="6">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
@@ -1960,8 +2112,11 @@
       <c r="E29" s="6">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>7</v>
       </c>
@@ -1974,8 +2129,11 @@
       <c r="E30" s="6">
         <v>1215</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="11">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>6</v>
       </c>
@@ -1988,8 +2146,11 @@
       <c r="E31" s="6">
         <v>149</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>6</v>
       </c>
@@ -2002,8 +2163,11 @@
       <c r="E32" s="6">
         <v>129</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>6</v>
       </c>
@@ -2016,8 +2180,11 @@
       <c r="E33" s="6">
         <v>338</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="11">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>6</v>
       </c>
@@ -2030,8 +2197,11 @@
       <c r="E34" s="6">
         <v>1442</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="11">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>6</v>
       </c>
@@ -2044,8 +2214,11 @@
       <c r="E35" s="6">
         <v>523</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="11">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>6</v>
       </c>
@@ -2058,8 +2231,11 @@
       <c r="E36" s="6">
         <v>3049</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="11">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>4</v>
       </c>
@@ -2072,8 +2248,11 @@
       <c r="E37" s="6">
         <v>166</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="11">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>4</v>
       </c>
@@ -2086,8 +2265,11 @@
       <c r="E38" s="6">
         <v>222</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="11">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>4</v>
       </c>
@@ -2100,8 +2282,11 @@
       <c r="E39" s="6">
         <v>122</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>4</v>
       </c>
@@ -2114,8 +2299,11 @@
       <c r="E40" s="6">
         <v>75</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>4</v>
       </c>
@@ -2128,8 +2316,11 @@
       <c r="E41" s="6">
         <v>563</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="11">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>4</v>
       </c>
@@ -2142,8 +2333,11 @@
       <c r="E42" s="6">
         <v>1128</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="11">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>4</v>
       </c>
@@ -2156,8 +2350,11 @@
       <c r="E43" s="6">
         <v>1713</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="11">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>4</v>
       </c>
@@ -2170,8 +2367,11 @@
       <c r="E44" s="6">
         <v>1535</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="11">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>4</v>
       </c>
@@ -2184,8 +2384,11 @@
       <c r="E45" s="6">
         <v>1077</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>4</v>
       </c>
@@ -2198,8 +2401,11 @@
       <c r="E46" s="6">
         <v>6294</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="11">
+        <v>6036</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>9</v>
       </c>
@@ -2212,8 +2418,11 @@
       <c r="E47" s="6">
         <v>241</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="11">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>5</v>
       </c>
@@ -2226,8 +2435,11 @@
       <c r="E48" s="6">
         <v>117</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>5</v>
       </c>
@@ -2240,8 +2452,11 @@
       <c r="E49" s="6">
         <v>90</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>5</v>
       </c>
@@ -2254,8 +2469,11 @@
       <c r="E50" s="6">
         <v>960</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="11">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>5</v>
       </c>
@@ -2268,8 +2486,11 @@
       <c r="E51" s="6">
         <v>1616</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="11">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>8</v>
       </c>
@@ -2282,12 +2503,16 @@
       <c r="E52" s="6">
         <v>206</v>
       </c>
+      <c r="F52" s="11">
+        <v>235</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2295,10 +2520,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136690A6-17A4-4964-A433-2A6DF69ADE61}">
-  <dimension ref="A2:F455"/>
+  <dimension ref="A2:G459"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2308,40 +2533,45 @@
     <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="4" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -2357,11 +2587,14 @@
       <c r="E4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2377,11 +2610,14 @@
       <c r="E5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -2397,11 +2633,14 @@
       <c r="E6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
@@ -2417,11 +2656,14 @@
       <c r="E7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -2437,11 +2679,14 @@
       <c r="E8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
@@ -2457,11 +2702,14 @@
       <c r="E9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
@@ -2477,11 +2725,14 @@
       <c r="E10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -2497,11 +2748,14 @@
       <c r="E11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="6">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2517,11 +2771,14 @@
       <c r="E12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -2537,11 +2794,14 @@
       <c r="E13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -2557,11 +2817,14 @@
       <c r="E14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -2577,11 +2840,14 @@
       <c r="E15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>2</v>
       </c>
@@ -2597,11 +2863,14 @@
       <c r="E16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
@@ -2617,11 +2886,14 @@
       <c r="E17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>2</v>
       </c>
@@ -2637,11 +2909,14 @@
       <c r="E18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
@@ -2657,11 +2932,14 @@
       <c r="E19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>2</v>
       </c>
@@ -2677,11 +2955,14 @@
       <c r="E20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -2697,11 +2978,14 @@
       <c r="E21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -2717,11 +3001,14 @@
       <c r="E22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>2</v>
       </c>
@@ -2737,11 +3024,14 @@
       <c r="E23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>2</v>
       </c>
@@ -2757,11 +3047,14 @@
       <c r="E24" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>2</v>
       </c>
@@ -2777,11 +3070,14 @@
       <c r="E25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>2</v>
       </c>
@@ -2797,11 +3093,14 @@
       <c r="E26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="6">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>2</v>
       </c>
@@ -2817,11 +3116,14 @@
       <c r="E27" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>2</v>
       </c>
@@ -2837,11 +3139,14 @@
       <c r="E28" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -2857,11 +3162,14 @@
       <c r="E29" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="6">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>2</v>
       </c>
@@ -2877,11 +3185,14 @@
       <c r="E30" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -2897,11 +3208,14 @@
       <c r="E31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="6">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>2</v>
       </c>
@@ -2917,11 +3231,14 @@
       <c r="E32" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>2</v>
       </c>
@@ -2937,11 +3254,14 @@
       <c r="E33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>2</v>
       </c>
@@ -2957,11 +3277,14 @@
       <c r="E34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>2</v>
       </c>
@@ -2977,11 +3300,14 @@
       <c r="E35" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>2</v>
       </c>
@@ -2997,11 +3323,14 @@
       <c r="E36" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -3017,11 +3346,14 @@
       <c r="E37" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>2</v>
       </c>
@@ -3037,11 +3369,14 @@
       <c r="E38" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>2</v>
       </c>
@@ -3057,11 +3392,14 @@
       <c r="E39" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
@@ -3077,11 +3415,14 @@
       <c r="E40" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="6">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>2</v>
       </c>
@@ -3097,11 +3438,14 @@
       <c r="E41" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>2</v>
       </c>
@@ -3117,11 +3461,14 @@
       <c r="E42" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>2</v>
       </c>
@@ -3137,11 +3484,14 @@
       <c r="E43" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>2</v>
       </c>
@@ -3157,11 +3507,14 @@
       <c r="E44" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>2</v>
       </c>
@@ -3177,11 +3530,14 @@
       <c r="E45" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>2</v>
       </c>
@@ -3197,11 +3553,14 @@
       <c r="E46" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>2</v>
       </c>
@@ -3217,11 +3576,14 @@
       <c r="E47" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>2</v>
       </c>
@@ -3237,11 +3599,14 @@
       <c r="E48" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F48" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="6">
+        <v>4</v>
+      </c>
+      <c r="G48" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -3257,11 +3622,14 @@
       <c r="E49" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="6">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>2</v>
       </c>
@@ -3277,11 +3645,14 @@
       <c r="E50" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="6">
         <v>23</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>2</v>
       </c>
@@ -3297,11 +3668,14 @@
       <c r="E51" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="6">
         <v>65</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
@@ -3317,11 +3691,14 @@
       <c r="E52" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
@@ -3337,11 +3714,14 @@
       <c r="E53" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>2</v>
       </c>
@@ -3357,11 +3737,14 @@
       <c r="E54" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="6">
         <v>23</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>2</v>
       </c>
@@ -3377,11 +3760,14 @@
       <c r="E55" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>2</v>
       </c>
@@ -3397,11 +3783,14 @@
       <c r="E56" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>2</v>
       </c>
@@ -3417,11 +3806,14 @@
       <c r="E57" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="6">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>2</v>
       </c>
@@ -3437,11 +3829,14 @@
       <c r="E58" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>2</v>
       </c>
@@ -3457,11 +3852,14 @@
       <c r="E59" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>2</v>
       </c>
@@ -3477,11 +3875,14 @@
       <c r="E60" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>2</v>
       </c>
@@ -3497,11 +3898,14 @@
       <c r="E61" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>2</v>
       </c>
@@ -3517,11 +3921,14 @@
       <c r="E62" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>2</v>
       </c>
@@ -3537,11 +3944,14 @@
       <c r="E63" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F63" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="6">
+        <v>4</v>
+      </c>
+      <c r="G63" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>2</v>
       </c>
@@ -3557,11 +3967,14 @@
       <c r="E64" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>2</v>
       </c>
@@ -3577,11 +3990,14 @@
       <c r="E65" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>2</v>
       </c>
@@ -3597,11 +4013,14 @@
       <c r="E66" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>2</v>
       </c>
@@ -3617,11 +4036,14 @@
       <c r="E67" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F67" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="6">
+        <v>4</v>
+      </c>
+      <c r="G67" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>2</v>
       </c>
@@ -3637,11 +4059,14 @@
       <c r="E68" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F68" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>2</v>
       </c>
@@ -3657,11 +4082,14 @@
       <c r="E69" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F69" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>2</v>
       </c>
@@ -3677,11 +4105,14 @@
       <c r="E70" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F70" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>2</v>
       </c>
@@ -3697,11 +4128,14 @@
       <c r="E71" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F71" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>2</v>
       </c>
@@ -3717,11 +4151,14 @@
       <c r="E72" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>2</v>
       </c>
@@ -3737,11 +4174,14 @@
       <c r="E73" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>2</v>
       </c>
@@ -3757,11 +4197,14 @@
       <c r="E74" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F74" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="6">
+        <v>4</v>
+      </c>
+      <c r="G74" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>2</v>
       </c>
@@ -3777,11 +4220,14 @@
       <c r="E75" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F75" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="6">
+        <v>2</v>
+      </c>
+      <c r="G75" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>2</v>
       </c>
@@ -3797,11 +4243,14 @@
       <c r="E76" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F76" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>2</v>
       </c>
@@ -3817,11 +4266,14 @@
       <c r="E77" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F77" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>2</v>
       </c>
@@ -3837,11 +4289,14 @@
       <c r="E78" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F78" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>2</v>
       </c>
@@ -3857,11 +4312,14 @@
       <c r="E79" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F79" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>2</v>
       </c>
@@ -3877,11 +4335,14 @@
       <c r="E80" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F80" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>2</v>
       </c>
@@ -3897,11 +4358,14 @@
       <c r="E81" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F81" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>2</v>
       </c>
@@ -3917,11 +4381,14 @@
       <c r="E82" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F82" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>2</v>
       </c>
@@ -3937,11 +4404,14 @@
       <c r="E83" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F83" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
@@ -3957,11 +4427,14 @@
       <c r="E84" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F84" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -3977,11 +4450,14 @@
       <c r="E85" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F85" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>2</v>
       </c>
@@ -3997,11 +4473,14 @@
       <c r="E86" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F86" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>2</v>
       </c>
@@ -4017,11 +4496,14 @@
       <c r="E87" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F87" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>2</v>
       </c>
@@ -4037,11 +4519,14 @@
       <c r="E88" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F88" s="6">
         <v>31</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>2</v>
       </c>
@@ -4057,11 +4542,14 @@
       <c r="E89" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F89" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>2</v>
       </c>
@@ -4077,11 +4565,14 @@
       <c r="E90" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F90" s="6">
         <v>19</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>2</v>
       </c>
@@ -4097,11 +4588,14 @@
       <c r="E91" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F91" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>2</v>
       </c>
@@ -4117,11 +4611,14 @@
       <c r="E92" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F92" s="9">
+      <c r="F92" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>2</v>
       </c>
@@ -4137,11 +4634,14 @@
       <c r="E93" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F93" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>2</v>
       </c>
@@ -4157,11 +4657,14 @@
       <c r="E94" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F94" s="9">
+      <c r="F94" s="6">
         <v>31</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>2</v>
       </c>
@@ -4177,11 +4680,14 @@
       <c r="E95" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F95" s="9">
+      <c r="F95" s="6">
         <v>133</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>2</v>
       </c>
@@ -4197,11 +4703,14 @@
       <c r="E96" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F96" s="9">
+      <c r="F96" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>2</v>
       </c>
@@ -4217,11 +4726,14 @@
       <c r="E97" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F97" s="9">
+      <c r="F97" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>2</v>
       </c>
@@ -4237,11 +4749,14 @@
       <c r="E98" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F98" s="9">
+      <c r="F98" s="6">
         <v>99</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>2</v>
       </c>
@@ -4257,11 +4772,14 @@
       <c r="E99" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F99" s="9">
+      <c r="F99" s="6">
         <v>64</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>2</v>
       </c>
@@ -4277,11 +4795,14 @@
       <c r="E100" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F100" s="9">
+      <c r="F100" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>2</v>
       </c>
@@ -4297,11 +4818,14 @@
       <c r="E101" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F101" s="9">
+      <c r="F101" s="6">
         <v>62</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>2</v>
       </c>
@@ -4317,11 +4841,14 @@
       <c r="E102" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F102" s="9">
+      <c r="F102" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>2</v>
       </c>
@@ -4337,11 +4864,14 @@
       <c r="E103" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F103" s="9">
+      <c r="F103" s="6">
         <v>38</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>2</v>
       </c>
@@ -4357,11 +4887,14 @@
       <c r="E104" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F104" s="9">
+      <c r="F104" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>2</v>
       </c>
@@ -4377,11 +4910,14 @@
       <c r="E105" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F105" s="9">
+      <c r="F105" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>2</v>
       </c>
@@ -4397,11 +4933,14 @@
       <c r="E106" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F106" s="9">
+      <c r="F106" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>2</v>
       </c>
@@ -4417,11 +4956,14 @@
       <c r="E107" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F107" s="9">
+      <c r="F107" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>2</v>
       </c>
@@ -4437,11 +4979,14 @@
       <c r="E108" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F108" s="9">
+      <c r="F108" s="6">
         <v>27</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>2</v>
       </c>
@@ -4457,11 +5002,14 @@
       <c r="E109" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F109" s="9">
+      <c r="F109" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>2</v>
       </c>
@@ -4477,11 +5025,14 @@
       <c r="E110" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F110" s="9">
+      <c r="F110" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>2</v>
       </c>
@@ -4497,11 +5048,14 @@
       <c r="E111" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F111" s="9">
+      <c r="F111" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>2</v>
       </c>
@@ -4517,11 +5071,14 @@
       <c r="E112" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F112" s="9">
+      <c r="F112" s="6">
         <v>38</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>2</v>
       </c>
@@ -4537,11 +5094,14 @@
       <c r="E113" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F113" s="9">
+      <c r="F113" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>2</v>
       </c>
@@ -4557,11 +5117,14 @@
       <c r="E114" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F114" s="9">
+      <c r="F114" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>2</v>
       </c>
@@ -4577,11 +5140,14 @@
       <c r="E115" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F115" s="9">
+      <c r="F115" s="6">
         <v>36</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>2</v>
       </c>
@@ -4597,11 +5163,14 @@
       <c r="E116" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F116" s="9">
+      <c r="F116" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>2</v>
       </c>
@@ -4617,11 +5186,14 @@
       <c r="E117" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F117" s="9">
+      <c r="F117" s="6">
         <v>51</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>2</v>
       </c>
@@ -4637,11 +5209,14 @@
       <c r="E118" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F118" s="9">
+      <c r="F118" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>2</v>
       </c>
@@ -4657,11 +5232,14 @@
       <c r="E119" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F119" s="9">
+      <c r="F119" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>2</v>
       </c>
@@ -4677,11 +5255,14 @@
       <c r="E120" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F120" s="9">
+      <c r="F120" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>2</v>
       </c>
@@ -4697,11 +5278,14 @@
       <c r="E121" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F121" s="9">
+      <c r="F121" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>2</v>
       </c>
@@ -4717,11 +5301,14 @@
       <c r="E122" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F122" s="9">
+      <c r="F122" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>2</v>
       </c>
@@ -4737,11 +5324,14 @@
       <c r="E123" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F123" s="9">
+      <c r="F123" s="6">
         <v>23</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>2</v>
       </c>
@@ -4757,11 +5347,14 @@
       <c r="E124" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F124" s="9">
+      <c r="F124" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>2</v>
       </c>
@@ -4777,11 +5370,14 @@
       <c r="E125" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F125" s="9">
+      <c r="F125" s="6">
         <v>47</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>2</v>
       </c>
@@ -4797,11 +5393,14 @@
       <c r="E126" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F126" s="9">
+      <c r="F126" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>2</v>
       </c>
@@ -4817,11 +5416,14 @@
       <c r="E127" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F127" s="9">
+      <c r="F127" s="6">
         <v>24</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>2</v>
       </c>
@@ -4837,11 +5439,14 @@
       <c r="E128" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F128" s="9">
+      <c r="F128" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>2</v>
       </c>
@@ -4857,11 +5462,14 @@
       <c r="E129" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F129" s="9">
+      <c r="F129" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>2</v>
       </c>
@@ -4877,11 +5485,14 @@
       <c r="E130" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F130" s="9">
+      <c r="F130" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>2</v>
       </c>
@@ -4897,11 +5508,14 @@
       <c r="E131" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F131" s="9">
+      <c r="F131" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>2</v>
       </c>
@@ -4917,11 +5531,14 @@
       <c r="E132" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F132" s="9">
+      <c r="F132" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>2</v>
       </c>
@@ -4937,11 +5554,14 @@
       <c r="E133" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F133" s="9">
+      <c r="F133" s="6">
         <v>71</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>2</v>
       </c>
@@ -4957,11 +5577,14 @@
       <c r="E134" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F134" s="9">
+      <c r="F134" s="6">
         <v>81</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>2</v>
       </c>
@@ -4977,11 +5600,14 @@
       <c r="E135" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F135" s="9">
+      <c r="F135" s="6">
         <v>42</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>2</v>
       </c>
@@ -4997,11 +5623,14 @@
       <c r="E136" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F136" s="9">
+      <c r="F136" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>2</v>
       </c>
@@ -5017,11 +5646,14 @@
       <c r="E137" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F137" s="9">
+      <c r="F137" s="6">
         <v>60</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>2</v>
       </c>
@@ -5037,11 +5669,14 @@
       <c r="E138" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F138" s="9">
+      <c r="F138" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>2</v>
       </c>
@@ -5057,11 +5692,14 @@
       <c r="E139" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F139" s="9">
+      <c r="F139" s="6">
         <v>68</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>2</v>
       </c>
@@ -5077,11 +5715,14 @@
       <c r="E140" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F140" s="9">
+      <c r="F140" s="6">
         <v>23</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>2</v>
       </c>
@@ -5097,11 +5738,14 @@
       <c r="E141" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F141" s="9">
+      <c r="F141" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>2</v>
       </c>
@@ -5117,11 +5761,14 @@
       <c r="E142" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F142" s="9">
+      <c r="F142" s="6">
         <v>37</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>2</v>
       </c>
@@ -5137,11 +5784,14 @@
       <c r="E143" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F143" s="9">
+      <c r="F143" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>2</v>
       </c>
@@ -5157,11 +5807,14 @@
       <c r="E144" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F144" s="9">
+      <c r="F144" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>2</v>
       </c>
@@ -5177,11 +5830,14 @@
       <c r="E145" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F145" s="9">
+      <c r="F145" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>2</v>
       </c>
@@ -5197,11 +5853,14 @@
       <c r="E146" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F146" s="9">
+      <c r="F146" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>2</v>
       </c>
@@ -5217,11 +5876,14 @@
       <c r="E147" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F147" s="9">
+      <c r="F147" s="6">
         <v>23</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>2</v>
       </c>
@@ -5237,11 +5899,14 @@
       <c r="E148" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F148" s="9">
+      <c r="F148" s="6">
         <v>53</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>2</v>
       </c>
@@ -5257,11 +5922,14 @@
       <c r="E149" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F149" s="9">
+      <c r="F149" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>2</v>
       </c>
@@ -5277,11 +5945,14 @@
       <c r="E150" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F150" s="9">
+      <c r="F150" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>2</v>
       </c>
@@ -5297,11 +5968,14 @@
       <c r="E151" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F151" s="9">
+      <c r="F151" s="6">
         <v>47</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>2</v>
       </c>
@@ -5317,11 +5991,14 @@
       <c r="E152" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F152" s="9">
+      <c r="F152" s="6">
         <v>27</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>2</v>
       </c>
@@ -5337,11 +6014,14 @@
       <c r="E153" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F153" s="9">
+      <c r="F153" s="6">
         <v>39</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>2</v>
       </c>
@@ -5357,11 +6037,14 @@
       <c r="E154" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F154" s="9">
+      <c r="F154" s="6">
         <v>36</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>2</v>
       </c>
@@ -5377,11 +6060,14 @@
       <c r="E155" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F155" s="9">
+      <c r="F155" s="6">
         <v>77</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>2</v>
       </c>
@@ -5397,11 +6083,14 @@
       <c r="E156" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F156" s="9">
+      <c r="F156" s="6">
         <v>96</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156" s="6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>2</v>
       </c>
@@ -5417,11 +6106,14 @@
       <c r="E157" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F157" s="9">
+      <c r="F157" s="6">
         <v>49</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>2</v>
       </c>
@@ -5437,11 +6129,14 @@
       <c r="E158" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F158" s="9">
+      <c r="F158" s="6">
         <v>53</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>2</v>
       </c>
@@ -5457,11 +6152,14 @@
       <c r="E159" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F159" s="9">
+      <c r="F159" s="6">
         <v>56</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>2</v>
       </c>
@@ -5477,11 +6175,14 @@
       <c r="E160" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F160" s="9">
+      <c r="F160" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>2</v>
       </c>
@@ -5497,11 +6198,14 @@
       <c r="E161" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F161" s="9">
+      <c r="F161" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>2</v>
       </c>
@@ -5517,11 +6221,14 @@
       <c r="E162" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F162" s="9">
+      <c r="F162" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>2</v>
       </c>
@@ -5537,11 +6244,14 @@
       <c r="E163" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F163" s="9">
+      <c r="F163" s="6">
         <v>27</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>2</v>
       </c>
@@ -5557,11 +6267,14 @@
       <c r="E164" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F164" s="9">
+      <c r="F164" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>2</v>
       </c>
@@ -5577,11 +6290,14 @@
       <c r="E165" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F165" s="9">
+      <c r="F165" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>2</v>
       </c>
@@ -5597,11 +6313,14 @@
       <c r="E166" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F166" s="9">
+      <c r="F166" s="6">
         <v>64</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>2</v>
       </c>
@@ -5617,11 +6336,14 @@
       <c r="E167" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F167" s="9">
+      <c r="F167" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>2</v>
       </c>
@@ -5637,11 +6359,14 @@
       <c r="E168" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F168" s="9">
+      <c r="F168" s="6">
         <v>23</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>2</v>
       </c>
@@ -5657,11 +6382,14 @@
       <c r="E169" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F169" s="9">
+      <c r="F169" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>2</v>
       </c>
@@ -5677,11 +6405,14 @@
       <c r="E170" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F170" s="9">
+      <c r="F170" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>2</v>
       </c>
@@ -5697,11 +6428,14 @@
       <c r="E171" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F171" s="9">
+      <c r="F171" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>2</v>
       </c>
@@ -5717,11 +6451,14 @@
       <c r="E172" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="F172" s="9">
+      <c r="F172" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>2</v>
       </c>
@@ -5737,11 +6474,14 @@
       <c r="E173" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F173" s="9">
+      <c r="F173" s="6">
         <v>19</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>2</v>
       </c>
@@ -5757,11 +6497,14 @@
       <c r="E174" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F174" s="9">
+      <c r="F174" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>2</v>
       </c>
@@ -5777,11 +6520,14 @@
       <c r="E175" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F175" s="9">
+      <c r="F175" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>2</v>
       </c>
@@ -5797,11 +6543,14 @@
       <c r="E176" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F176" s="9">
+      <c r="F176" s="6">
         <v>86</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176" s="6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>2</v>
       </c>
@@ -5817,11 +6566,14 @@
       <c r="E177" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F177" s="9">
+      <c r="F177" s="6">
         <v>31</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>2</v>
       </c>
@@ -5837,11 +6589,14 @@
       <c r="E178" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F178" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F178" s="6">
+        <v>4</v>
+      </c>
+      <c r="G178" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>2</v>
       </c>
@@ -5857,11 +6612,14 @@
       <c r="E179" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="F179" s="9">
+      <c r="F179" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>2</v>
       </c>
@@ -5877,11 +6635,14 @@
       <c r="E180" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F180" s="9">
+      <c r="F180" s="6">
         <v>47</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G180" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>2</v>
       </c>
@@ -5897,11 +6658,14 @@
       <c r="E181" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F181" s="9">
+      <c r="F181" s="6">
         <v>19</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G181" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>2</v>
       </c>
@@ -5917,11 +6681,14 @@
       <c r="E182" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F182" s="9">
+      <c r="F182" s="6">
         <v>54</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G182" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>2</v>
       </c>
@@ -5937,11 +6704,14 @@
       <c r="E183" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F183" s="9">
+      <c r="F183" s="6">
         <v>52</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G183" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>2</v>
       </c>
@@ -5957,11 +6727,14 @@
       <c r="E184" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F184" s="9">
+      <c r="F184" s="6">
         <v>19</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G184" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>2</v>
       </c>
@@ -5977,11 +6750,14 @@
       <c r="E185" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="F185" s="9">
+      <c r="F185" s="6">
         <v>37</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G185" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>2</v>
       </c>
@@ -5997,11 +6773,14 @@
       <c r="E186" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="F186" s="9">
+      <c r="F186" s="6">
         <v>54</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G186" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>2</v>
       </c>
@@ -6017,11 +6796,14 @@
       <c r="E187" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F187" s="9">
+      <c r="F187" s="6">
         <v>36</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G187" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>2</v>
       </c>
@@ -6037,11 +6819,14 @@
       <c r="E188" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F188" s="9">
+      <c r="F188" s="6">
         <v>39</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G188" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>2</v>
       </c>
@@ -6057,11 +6842,14 @@
       <c r="E189" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="F189" s="9">
+      <c r="F189" s="6">
         <v>31</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G189" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>2</v>
       </c>
@@ -6077,11 +6865,14 @@
       <c r="E190" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F190" s="9">
+      <c r="F190" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G190" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>2</v>
       </c>
@@ -6097,11 +6888,14 @@
       <c r="E191" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F191" s="9">
+      <c r="F191" s="6">
         <v>42</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G191" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>2</v>
       </c>
@@ -6117,11 +6911,14 @@
       <c r="E192" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="F192" s="9">
+      <c r="F192" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G192" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>2</v>
       </c>
@@ -6137,11 +6934,14 @@
       <c r="E193" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F193" s="9">
+      <c r="F193" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G193" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>2</v>
       </c>
@@ -6157,11 +6957,14 @@
       <c r="E194" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F194" s="9">
+      <c r="F194" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G194" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>2</v>
       </c>
@@ -6177,11 +6980,14 @@
       <c r="E195" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F195" s="9">
+      <c r="F195" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G195" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>2</v>
       </c>
@@ -6197,11 +7003,14 @@
       <c r="E196" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F196" s="9">
+      <c r="F196" s="6">
         <v>53</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G196" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>2</v>
       </c>
@@ -6217,11 +7026,14 @@
       <c r="E197" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F197" s="9">
+      <c r="F197" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G197" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>2</v>
       </c>
@@ -6237,11 +7049,14 @@
       <c r="E198" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F198" s="9">
+      <c r="F198" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G198" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>2</v>
       </c>
@@ -6257,11 +7072,14 @@
       <c r="E199" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F199" s="9">
+      <c r="F199" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G199" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>2</v>
       </c>
@@ -6277,11 +7095,14 @@
       <c r="E200" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="F200" s="9">
+      <c r="F200" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G200" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>2</v>
       </c>
@@ -6297,11 +7118,14 @@
       <c r="E201" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="F201" s="9">
+      <c r="F201" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G201" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>2</v>
       </c>
@@ -6317,11 +7141,14 @@
       <c r="E202" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F202" s="9">
+      <c r="F202" s="6">
         <v>45</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G202" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>2</v>
       </c>
@@ -6337,11 +7164,14 @@
       <c r="E203" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="F203" s="9">
+      <c r="F203" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G203" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>2</v>
       </c>
@@ -6357,11 +7187,14 @@
       <c r="E204" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F204" s="9">
+      <c r="F204" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G204" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>2</v>
       </c>
@@ -6377,11 +7210,14 @@
       <c r="E205" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F205" s="9">
+      <c r="F205" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G205" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>2</v>
       </c>
@@ -6397,11 +7233,14 @@
       <c r="E206" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F206" s="9">
+      <c r="F206" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G206" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>2</v>
       </c>
@@ -6417,11 +7256,14 @@
       <c r="E207" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F207" s="9">
+      <c r="F207" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G207" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>2</v>
       </c>
@@ -6437,11 +7279,14 @@
       <c r="E208" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F208" s="9">
+      <c r="F208" s="6">
         <v>27</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G208" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>2</v>
       </c>
@@ -6457,11 +7302,14 @@
       <c r="E209" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="F209" s="9">
+      <c r="F209" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G209" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>2</v>
       </c>
@@ -6477,11 +7325,14 @@
       <c r="E210" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F210" s="9">
+      <c r="F210" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G210" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>2</v>
       </c>
@@ -6497,11 +7348,14 @@
       <c r="E211" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F211" s="9">
+      <c r="F211" s="6">
         <v>54</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G211" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>2</v>
       </c>
@@ -6517,11 +7371,14 @@
       <c r="E212" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F212" s="9">
+      <c r="F212" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G212" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>2</v>
       </c>
@@ -6537,11 +7394,14 @@
       <c r="E213" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="F213" s="9">
+      <c r="F213" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G213" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>2</v>
       </c>
@@ -6557,11 +7417,14 @@
       <c r="E214" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F214" s="9">
+      <c r="F214" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G214" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>2</v>
       </c>
@@ -6577,11 +7440,14 @@
       <c r="E215" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F215" s="9">
+      <c r="F215" s="6">
         <v>367</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G215" s="6">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>2</v>
       </c>
@@ -6597,11 +7463,14 @@
       <c r="E216" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F216" s="9">
+      <c r="F216" s="6">
         <v>504</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G216" s="6">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>2</v>
       </c>
@@ -6617,11 +7486,14 @@
       <c r="E217" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F217" s="9">
+      <c r="F217" s="6">
         <v>301</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G217" s="6">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>2</v>
       </c>
@@ -6637,11 +7509,14 @@
       <c r="E218" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F218" s="9">
+      <c r="F218" s="6">
         <v>820</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G218" s="6">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>2</v>
       </c>
@@ -6657,11 +7532,14 @@
       <c r="E219" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F219" s="9">
+      <c r="F219" s="6">
         <v>341</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G219" s="6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>2</v>
       </c>
@@ -6677,11 +7555,14 @@
       <c r="E220" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F220" s="9">
+      <c r="F220" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G220" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>2</v>
       </c>
@@ -6697,11 +7578,14 @@
       <c r="E221" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="F221" s="9">
+      <c r="F221" s="6">
         <v>274</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G221" s="6">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>2</v>
       </c>
@@ -6717,11 +7601,14 @@
       <c r="E222" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F222" s="9">
+      <c r="F222" s="6">
         <v>578</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G222" s="6">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>2</v>
       </c>
@@ -6737,11 +7624,14 @@
       <c r="E223" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F223" s="9">
+      <c r="F223" s="6">
         <v>461</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G223" s="6">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>2</v>
       </c>
@@ -6757,11 +7647,14 @@
       <c r="E224" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="F224" s="9">
+      <c r="F224" s="6">
         <v>659</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G224" s="6">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>2</v>
       </c>
@@ -6777,11 +7670,14 @@
       <c r="E225" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F225" s="9">
+      <c r="F225" s="6">
         <v>408</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G225" s="6">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>2</v>
       </c>
@@ -6797,11 +7693,14 @@
       <c r="E226" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="F226" s="9">
+      <c r="F226" s="6">
         <v>266</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G226" s="6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>2</v>
       </c>
@@ -6817,11 +7716,14 @@
       <c r="E227" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="F227" s="9">
+      <c r="F227" s="6">
         <v>584</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G227" s="6">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>2</v>
       </c>
@@ -6837,11 +7739,14 @@
       <c r="E228" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F228" s="9">
+      <c r="F228" s="6">
         <v>645</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G228" s="6">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>2</v>
       </c>
@@ -6857,11 +7762,14 @@
       <c r="E229" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F229" s="9">
+      <c r="F229" s="6">
         <v>203</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G229" s="6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>2</v>
       </c>
@@ -6877,11 +7785,14 @@
       <c r="E230" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F230" s="9">
+      <c r="F230" s="6">
         <v>861</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G230" s="6">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>2</v>
       </c>
@@ -6897,11 +7808,14 @@
       <c r="E231" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F231" s="9">
+      <c r="F231" s="6">
         <v>1073</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G231" s="6">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>2</v>
       </c>
@@ -6917,11 +7831,14 @@
       <c r="E232" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="F232" s="9">
+      <c r="F232" s="6">
         <v>945</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G232" s="6">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>2</v>
       </c>
@@ -6937,11 +7854,14 @@
       <c r="E233" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="F233" s="9">
+      <c r="F233" s="6">
         <v>1012</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G233" s="6">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>2</v>
       </c>
@@ -6957,11 +7877,14 @@
       <c r="E234" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F234" s="9">
+      <c r="F234" s="6">
         <v>392</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G234" s="6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>2</v>
       </c>
@@ -6977,11 +7900,14 @@
       <c r="E235" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F235" s="9">
+      <c r="F235" s="6">
         <v>649</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G235" s="6">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>2</v>
       </c>
@@ -6997,11 +7923,14 @@
       <c r="E236" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="F236" s="9">
+      <c r="F236" s="6">
         <v>507</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G236" s="6">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>2</v>
       </c>
@@ -7017,11 +7946,14 @@
       <c r="E237" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F237" s="9">
+      <c r="F237" s="6">
         <v>430</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G237" s="6">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>2</v>
       </c>
@@ -7037,11 +7969,14 @@
       <c r="E238" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F238" s="9">
+      <c r="F238" s="6">
         <v>337</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G238" s="6">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>2</v>
       </c>
@@ -7057,11 +7992,14 @@
       <c r="E239" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F239" s="9">
+      <c r="F239" s="6">
         <v>268</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G239" s="6">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>2</v>
       </c>
@@ -7077,11 +8015,14 @@
       <c r="E240" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F240" s="9">
+      <c r="F240" s="6">
         <v>755</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G240" s="6">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>2</v>
       </c>
@@ -7097,11 +8038,14 @@
       <c r="E241" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F241" s="9">
+      <c r="F241" s="6">
         <v>274</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G241" s="6">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>2</v>
       </c>
@@ -7117,11 +8061,14 @@
       <c r="E242" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F242" s="9">
+      <c r="F242" s="6">
         <v>312</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G242" s="6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>2</v>
       </c>
@@ -7137,11 +8084,14 @@
       <c r="E243" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="F243" s="9">
+      <c r="F243" s="6">
         <v>268</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G243" s="6">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>2</v>
       </c>
@@ -7157,11 +8107,14 @@
       <c r="E244" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F244" s="9">
+      <c r="F244" s="6">
         <v>209</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G244" s="6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>2</v>
       </c>
@@ -7177,11 +8130,14 @@
       <c r="E245" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F245" s="9">
+      <c r="F245" s="6">
         <v>923</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G245" s="6">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>2</v>
       </c>
@@ -7197,11 +8153,14 @@
       <c r="E246" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F246" s="9">
+      <c r="F246" s="6">
         <v>696</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G246" s="6">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>2</v>
       </c>
@@ -7217,11 +8176,14 @@
       <c r="E247" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F247" s="9">
+      <c r="F247" s="6">
         <v>854</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G247" s="6">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>2</v>
       </c>
@@ -7237,11 +8199,14 @@
       <c r="E248" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="F248" s="9">
+      <c r="F248" s="6">
         <v>621</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G248" s="6">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>2</v>
       </c>
@@ -7257,11 +8222,14 @@
       <c r="E249" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="F249" s="9">
+      <c r="F249" s="6">
         <v>1285</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G249" s="6">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>2</v>
       </c>
@@ -7277,11 +8245,14 @@
       <c r="E250" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F250" s="9">
+      <c r="F250" s="6">
         <v>629</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G250" s="6">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>2</v>
       </c>
@@ -7297,11 +8268,14 @@
       <c r="E251" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F251" s="9">
+      <c r="F251" s="6">
         <v>767</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G251" s="6">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>2</v>
       </c>
@@ -7317,11 +8291,14 @@
       <c r="E252" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F252" s="9">
+      <c r="F252" s="6">
         <v>1225</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G252" s="6">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>2</v>
       </c>
@@ -7337,11 +8314,14 @@
       <c r="E253" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="F253" s="9">
+      <c r="F253" s="6">
         <v>527</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G253" s="6">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>2</v>
       </c>
@@ -7357,11 +8337,14 @@
       <c r="E254" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="F254" s="9">
+      <c r="F254" s="6">
         <v>520</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G254" s="6">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>2</v>
       </c>
@@ -7377,11 +8360,14 @@
       <c r="E255" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F255" s="9">
+      <c r="F255" s="6">
         <v>624</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G255" s="6">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>2</v>
       </c>
@@ -7397,11 +8383,14 @@
       <c r="E256" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F256" s="9">
+      <c r="F256" s="6">
         <v>1098</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G256" s="6">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>2</v>
       </c>
@@ -7417,11 +8406,14 @@
       <c r="E257" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F257" s="9">
+      <c r="F257" s="6">
         <v>303</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G257" s="6">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>2</v>
       </c>
@@ -7437,11 +8429,14 @@
       <c r="E258" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F258" s="9">
+      <c r="F258" s="6">
         <v>1503</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G258" s="6">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>2</v>
       </c>
@@ -7457,11 +8452,14 @@
       <c r="E259" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="F259" s="9">
+      <c r="F259" s="6">
         <v>409</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G259" s="6">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>2</v>
       </c>
@@ -7477,11 +8475,14 @@
       <c r="E260" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F260" s="9">
+      <c r="F260" s="6">
         <v>222</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G260" s="6">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>2</v>
       </c>
@@ -7497,11 +8498,14 @@
       <c r="E261" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="F261" s="9">
+      <c r="F261" s="6">
         <v>243</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G261" s="6">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>2</v>
       </c>
@@ -7517,11 +8521,14 @@
       <c r="E262" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="F262" s="9">
+      <c r="F262" s="6">
         <v>622</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G262" s="6">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>2</v>
       </c>
@@ -7537,11 +8544,14 @@
       <c r="E263" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="F263" s="9">
+      <c r="F263" s="6">
         <v>498</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G263" s="6">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>2</v>
       </c>
@@ -7557,11 +8567,14 @@
       <c r="E264" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F264" s="9">
+      <c r="F264" s="6">
         <v>665</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G264" s="6">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>10</v>
       </c>
@@ -7577,11 +8590,14 @@
       <c r="E265" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F265" s="9">
+      <c r="F265" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G265" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>10</v>
       </c>
@@ -7597,11 +8613,14 @@
       <c r="E266" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F266" s="9">
+      <c r="F266" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G266" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>10</v>
       </c>
@@ -7617,11 +8636,14 @@
       <c r="E267" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F267" s="9">
+      <c r="F267" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G267" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>7</v>
       </c>
@@ -7637,11 +8659,14 @@
       <c r="E268" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F268" s="9">
+      <c r="F268" s="6">
         <v>210</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G268" s="6">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>7</v>
       </c>
@@ -7657,11 +8682,14 @@
       <c r="E269" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F269" s="9">
+      <c r="F269" s="6">
         <v>168</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G269" s="6">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>7</v>
       </c>
@@ -7677,11 +8705,14 @@
       <c r="E270" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F270" s="9">
+      <c r="F270" s="6">
         <v>205</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G270" s="6">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>7</v>
       </c>
@@ -7697,11 +8728,14 @@
       <c r="E271" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="F271" s="9">
+      <c r="F271" s="6">
         <v>193</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G271" s="6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>7</v>
       </c>
@@ -7717,11 +8751,14 @@
       <c r="E272" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F272" s="9">
+      <c r="F272" s="6">
         <v>213</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G272" s="6">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>7</v>
       </c>
@@ -7737,11 +8774,14 @@
       <c r="E273" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="F273" s="9">
+      <c r="F273" s="6">
         <v>226</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G273" s="6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>6</v>
       </c>
@@ -7757,11 +8797,14 @@
       <c r="E274" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F274" s="9">
+      <c r="F274" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G274" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>6</v>
       </c>
@@ -7777,11 +8820,14 @@
       <c r="E275" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F275" s="9">
+      <c r="F275" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G275" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>6</v>
       </c>
@@ -7797,11 +8843,14 @@
       <c r="E276" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F276" s="9">
+      <c r="F276" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G276" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>6</v>
       </c>
@@ -7817,11 +8866,14 @@
       <c r="E277" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F277" s="9">
+      <c r="F277" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G277" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>6</v>
       </c>
@@ -7837,11 +8889,14 @@
       <c r="E278" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F278" s="9">
+      <c r="F278" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G278" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>6</v>
       </c>
@@ -7857,11 +8912,14 @@
       <c r="E279" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F279" s="9">
+      <c r="F279" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G279" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>6</v>
       </c>
@@ -7877,11 +8935,14 @@
       <c r="E280" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F280" s="9">
+      <c r="F280" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G280" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>6</v>
       </c>
@@ -7897,11 +8958,14 @@
       <c r="E281" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F281" s="9">
+      <c r="F281" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G281" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
         <v>6</v>
       </c>
@@ -7917,11 +8981,14 @@
       <c r="E282" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F282" s="9">
+      <c r="F282" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G282" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>6</v>
       </c>
@@ -7937,11 +9004,14 @@
       <c r="E283" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F283" s="9">
+      <c r="F283" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G283" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>6</v>
       </c>
@@ -7957,11 +9027,14 @@
       <c r="E284" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="F284" s="9">
+      <c r="F284" s="6">
         <v>41</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G284" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
         <v>6</v>
       </c>
@@ -7977,11 +9050,14 @@
       <c r="E285" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F285" s="9">
+      <c r="F285" s="6">
         <v>26</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G285" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
         <v>6</v>
       </c>
@@ -7997,11 +9073,14 @@
       <c r="E286" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F286" s="9">
+      <c r="F286" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G286" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>6</v>
       </c>
@@ -8017,11 +9096,14 @@
       <c r="E287" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F287" s="9">
+      <c r="F287" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G287" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>6</v>
       </c>
@@ -8037,11 +9119,14 @@
       <c r="E288" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F288" s="9">
+      <c r="F288" s="6">
         <v>19</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G288" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>6</v>
       </c>
@@ -8057,11 +9142,14 @@
       <c r="E289" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F289" s="9">
+      <c r="F289" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G289" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>6</v>
       </c>
@@ -8077,11 +9165,14 @@
       <c r="E290" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="F290" s="9">
+      <c r="F290" s="6">
         <v>19</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G290" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>6</v>
       </c>
@@ -8097,11 +9188,14 @@
       <c r="E291" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="F291" s="9">
+      <c r="F291" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G291" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
         <v>6</v>
       </c>
@@ -8117,11 +9211,14 @@
       <c r="E292" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="F292" s="9">
+      <c r="F292" s="6">
         <v>32</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G292" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
         <v>6</v>
       </c>
@@ -8137,11 +9234,14 @@
       <c r="E293" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F293" s="9">
+      <c r="F293" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G293" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
         <v>6</v>
       </c>
@@ -8157,11 +9257,14 @@
       <c r="E294" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="F294" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F294" s="6">
+        <v>4</v>
+      </c>
+      <c r="G294" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
         <v>6</v>
       </c>
@@ -8177,11 +9280,14 @@
       <c r="E295" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F295" s="9">
+      <c r="F295" s="6">
         <v>26</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G295" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>6</v>
       </c>
@@ -8197,11 +9303,14 @@
       <c r="E296" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F296" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F296" s="6">
+        <v>2</v>
+      </c>
+      <c r="G296" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>6</v>
       </c>
@@ -8217,11 +9326,14 @@
       <c r="E297" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="F297" s="9">
+      <c r="F297" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G297" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>6</v>
       </c>
@@ -8237,11 +9349,14 @@
       <c r="E298" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F298" s="9">
+      <c r="F298" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G298" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>6</v>
       </c>
@@ -8257,11 +9372,14 @@
       <c r="E299" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F299" s="9">
+      <c r="F299" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G299" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>6</v>
       </c>
@@ -8277,11 +9395,14 @@
       <c r="E300" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F300" s="9">
+      <c r="F300" s="6">
         <v>56</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G300" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
         <v>6</v>
       </c>
@@ -8297,11 +9418,14 @@
       <c r="E301" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F301" s="9">
+      <c r="F301" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G301" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>6</v>
       </c>
@@ -8317,11 +9441,14 @@
       <c r="E302" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F302" s="9">
+      <c r="F302" s="6">
         <v>19</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G302" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
         <v>6</v>
       </c>
@@ -8337,11 +9464,14 @@
       <c r="E303" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F303" s="9">
+      <c r="F303" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G303" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
         <v>6</v>
       </c>
@@ -8357,11 +9487,14 @@
       <c r="E304" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F304" s="9">
+      <c r="F304" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G304" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>6</v>
       </c>
@@ -8377,11 +9510,14 @@
       <c r="E305" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="F305" s="9">
+      <c r="F305" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G305" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
         <v>6</v>
       </c>
@@ -8397,11 +9533,14 @@
       <c r="E306" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F306" s="9">
+      <c r="F306" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G306" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>6</v>
       </c>
@@ -8417,11 +9556,14 @@
       <c r="E307" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="F307" s="9">
+      <c r="F307" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G307" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>6</v>
       </c>
@@ -8437,11 +9579,14 @@
       <c r="E308" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F308" s="9">
+      <c r="F308" s="6">
         <v>19</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G308" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>6</v>
       </c>
@@ -8457,11 +9602,14 @@
       <c r="E309" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F309" s="9">
+      <c r="F309" s="6">
         <v>23</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G309" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
         <v>6</v>
       </c>
@@ -8477,11 +9625,14 @@
       <c r="E310" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="F310" s="9">
+      <c r="F310" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G310" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
         <v>6</v>
       </c>
@@ -8497,11 +9648,14 @@
       <c r="E311" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F311" s="9">
+      <c r="F311" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G311" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
         <v>6</v>
       </c>
@@ -8517,11 +9671,14 @@
       <c r="E312" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F312" s="9">
+      <c r="F312" s="6">
         <v>490</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G312" s="6">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>6</v>
       </c>
@@ -8537,11 +9694,14 @@
       <c r="E313" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="F313" s="9">
+      <c r="F313" s="6">
         <v>416</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G313" s="6">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
         <v>6</v>
       </c>
@@ -8557,11 +9717,14 @@
       <c r="E314" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F314" s="9">
+      <c r="F314" s="6">
         <v>410</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G314" s="6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
         <v>6</v>
       </c>
@@ -8577,11 +9740,14 @@
       <c r="E315" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="F315" s="9">
+      <c r="F315" s="6">
         <v>137</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G315" s="6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
         <v>6</v>
       </c>
@@ -8597,11 +9763,14 @@
       <c r="E316" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="F316" s="9">
+      <c r="F316" s="6">
         <v>313</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G316" s="6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>6</v>
       </c>
@@ -8617,11 +9786,14 @@
       <c r="E317" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="F317" s="9">
+      <c r="F317" s="6">
         <v>134</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G317" s="6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
         <v>6</v>
       </c>
@@ -8637,11 +9809,14 @@
       <c r="E318" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F318" s="9">
+      <c r="F318" s="6">
         <v>82</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G318" s="6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
         <v>6</v>
       </c>
@@ -8657,11 +9832,14 @@
       <c r="E319" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="F319" s="9">
+      <c r="F319" s="6">
         <v>543</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G319" s="6">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
         <v>6</v>
       </c>
@@ -8677,11 +9855,14 @@
       <c r="E320" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F320" s="9">
+      <c r="F320" s="6">
         <v>495</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G320" s="6">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
         <v>6</v>
       </c>
@@ -8697,11 +9878,14 @@
       <c r="E321" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F321" s="9">
+      <c r="F321" s="6">
         <v>424</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G321" s="6">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
         <v>6</v>
       </c>
@@ -8717,11 +9901,14 @@
       <c r="E322" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="F322" s="9">
+      <c r="F322" s="6">
         <v>522</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G322" s="6">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
         <v>6</v>
       </c>
@@ -8737,11 +9924,14 @@
       <c r="E323" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F323" s="9">
+      <c r="F323" s="6">
         <v>522</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G323" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
         <v>6</v>
       </c>
@@ -8757,11 +9947,14 @@
       <c r="E324" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F324" s="9">
+      <c r="F324" s="6">
         <v>585</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G324" s="6">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
         <v>4</v>
       </c>
@@ -8777,11 +9970,14 @@
       <c r="E325" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="F325" s="9">
+      <c r="F325" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G325" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
         <v>4</v>
       </c>
@@ -8797,11 +9993,14 @@
       <c r="E326" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F326" s="9">
+      <c r="F326" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G326" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
         <v>4</v>
       </c>
@@ -8817,11 +10016,14 @@
       <c r="E327" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F327" s="9">
+      <c r="F327" s="6">
         <v>24</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G327" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
         <v>4</v>
       </c>
@@ -8837,11 +10039,14 @@
       <c r="E328" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F328" s="9">
+      <c r="F328" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G328" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
         <v>4</v>
       </c>
@@ -8857,11 +10062,14 @@
       <c r="E329" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F329" s="9">
+      <c r="F329" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G329" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
         <v>4</v>
       </c>
@@ -8877,11 +10085,14 @@
       <c r="E330" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F330" s="9">
+      <c r="F330" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G330" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
         <v>4</v>
       </c>
@@ -8897,11 +10108,14 @@
       <c r="E331" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="F331" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F331" s="6">
+        <v>4</v>
+      </c>
+      <c r="G331" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
         <v>4</v>
       </c>
@@ -8917,11 +10131,14 @@
       <c r="E332" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F332" s="9">
+      <c r="F332" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G332" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
         <v>4</v>
       </c>
@@ -8937,11 +10154,14 @@
       <c r="E333" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F333" s="9">
+      <c r="F333" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G333" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
         <v>4</v>
       </c>
@@ -8957,11 +10177,14 @@
       <c r="E334" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F334" s="9">
+      <c r="F334" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G334" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
         <v>4</v>
       </c>
@@ -8977,11 +10200,14 @@
       <c r="E335" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="F335" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F335" s="6">
+        <v>2</v>
+      </c>
+      <c r="G335" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
         <v>4</v>
       </c>
@@ -8997,11 +10223,14 @@
       <c r="E336" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="F336" s="9">
+      <c r="F336" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G336" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
         <v>4</v>
       </c>
@@ -9017,11 +10246,14 @@
       <c r="E337" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="F337" s="9">
+      <c r="F337" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G337" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
         <v>4</v>
       </c>
@@ -9037,11 +10269,14 @@
       <c r="E338" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="F338" s="9">
+      <c r="F338" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G338" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
         <v>4</v>
       </c>
@@ -9057,11 +10292,14 @@
       <c r="E339" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="F339" s="9">
+      <c r="F339" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G339" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
         <v>4</v>
       </c>
@@ -9077,11 +10315,14 @@
       <c r="E340" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F340" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F340" s="6">
+        <v>2</v>
+      </c>
+      <c r="G340" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
         <v>4</v>
       </c>
@@ -9097,11 +10338,14 @@
       <c r="E341" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F341" s="9">
+      <c r="F341" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G341" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
         <v>4</v>
       </c>
@@ -9117,11 +10361,14 @@
       <c r="E342" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F342" s="9">
+      <c r="F342" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G342" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
         <v>4</v>
       </c>
@@ -9137,11 +10384,14 @@
       <c r="E343" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F343" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F343" s="6">
+        <v>4</v>
+      </c>
+      <c r="G343" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
         <v>4</v>
       </c>
@@ -9157,11 +10407,14 @@
       <c r="E344" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="F344" s="9">
+      <c r="F344" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G344" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
         <v>4</v>
       </c>
@@ -9177,11 +10430,14 @@
       <c r="E345" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F345" s="9">
+      <c r="F345" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G345" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
         <v>4</v>
       </c>
@@ -9197,11 +10453,14 @@
       <c r="E346" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F346" s="9">
+      <c r="F346" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G346" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
         <v>4</v>
       </c>
@@ -9217,11 +10476,14 @@
       <c r="E347" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F347" s="9">
+      <c r="F347" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G347" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
         <v>4</v>
       </c>
@@ -9237,11 +10499,14 @@
       <c r="E348" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F348" s="9">
+      <c r="F348" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G348" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
         <v>4</v>
       </c>
@@ -9257,11 +10522,14 @@
       <c r="E349" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F349" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F349" s="6">
+        <v>2</v>
+      </c>
+      <c r="G349" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
         <v>4</v>
       </c>
@@ -9277,11 +10545,14 @@
       <c r="E350" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F350" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F350" s="6">
+        <v>4</v>
+      </c>
+      <c r="G350" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
         <v>4</v>
       </c>
@@ -9297,11 +10568,14 @@
       <c r="E351" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="F351" s="9">
+      <c r="F351" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G351" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
         <v>4</v>
       </c>
@@ -9317,11 +10591,14 @@
       <c r="E352" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F352" s="9">
+      <c r="F352" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G352" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
         <v>4</v>
       </c>
@@ -9337,11 +10614,14 @@
       <c r="E353" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F353" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F353" s="6">
+        <v>4</v>
+      </c>
+      <c r="G353" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
         <v>4</v>
       </c>
@@ -9357,11 +10637,14 @@
       <c r="E354" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F354" s="9">
+      <c r="F354" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G354" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
         <v>4</v>
       </c>
@@ -9377,11 +10660,14 @@
       <c r="E355" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="F355" s="9">
+      <c r="F355" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G355" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
         <v>4</v>
       </c>
@@ -9397,11 +10683,14 @@
       <c r="E356" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F356" s="9">
+      <c r="F356" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G356" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
         <v>4</v>
       </c>
@@ -9417,11 +10706,14 @@
       <c r="E357" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F357" s="9">
+      <c r="F357" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G357" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
         <v>4</v>
       </c>
@@ -9437,11 +10729,14 @@
       <c r="E358" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F358" s="9">
+      <c r="F358" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G358" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
         <v>4</v>
       </c>
@@ -9457,11 +10752,14 @@
       <c r="E359" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="F359" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F359" s="6">
+        <v>2</v>
+      </c>
+      <c r="G359" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
         <v>4</v>
       </c>
@@ -9477,11 +10775,14 @@
       <c r="E360" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="F360" s="9">
+      <c r="F360" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G360" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
         <v>4</v>
       </c>
@@ -9497,11 +10798,14 @@
       <c r="E361" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="F361" s="9">
+      <c r="F361" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G361" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
         <v>4</v>
       </c>
@@ -9517,11 +10821,14 @@
       <c r="E362" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F362" s="9">
+      <c r="F362" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G362" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
         <v>4</v>
       </c>
@@ -9537,11 +10844,14 @@
       <c r="E363" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="F363" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F363" s="6">
+        <v>2</v>
+      </c>
+      <c r="G363" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
         <v>4</v>
       </c>
@@ -9557,11 +10867,14 @@
       <c r="E364" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="F364" s="9">
+      <c r="F364" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G364" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
         <v>4</v>
       </c>
@@ -9577,11 +10890,14 @@
       <c r="E365" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F365" s="9">
+      <c r="F365" s="6">
         <v>55</v>
       </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G365" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
         <v>4</v>
       </c>
@@ -9597,11 +10913,14 @@
       <c r="E366" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="F366" s="9">
+      <c r="F366" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G366" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
         <v>4</v>
       </c>
@@ -9617,11 +10936,14 @@
       <c r="E367" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="F367" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F367" s="6">
+        <v>2</v>
+      </c>
+      <c r="G367" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
         <v>4</v>
       </c>
@@ -9637,11 +10959,14 @@
       <c r="E368" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="F368" s="9">
+      <c r="F368" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G368" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
         <v>4</v>
       </c>
@@ -9657,11 +10982,14 @@
       <c r="E369" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="F369" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F369" s="6">
+        <v>4</v>
+      </c>
+      <c r="G369" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
         <v>4</v>
       </c>
@@ -9677,11 +11005,14 @@
       <c r="E370" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F370" s="9">
+      <c r="F370" s="6">
         <v>31</v>
       </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G370" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
         <v>4</v>
       </c>
@@ -9697,11 +11028,14 @@
       <c r="E371" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F371" s="9">
+      <c r="F371" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G371" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
         <v>4</v>
       </c>
@@ -9717,11 +11051,14 @@
       <c r="E372" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F372" s="9">
+      <c r="F372" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G372" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
         <v>4</v>
       </c>
@@ -9737,11 +11074,14 @@
       <c r="E373" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F373" s="9">
+      <c r="F373" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G373" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
         <v>4</v>
       </c>
@@ -9757,11 +11097,14 @@
       <c r="E374" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F374" s="9">
+      <c r="F374" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G374" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
         <v>4</v>
       </c>
@@ -9777,11 +11120,14 @@
       <c r="E375" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F375" s="9">
+      <c r="F375" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G375" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
         <v>4</v>
       </c>
@@ -9797,11 +11143,14 @@
       <c r="E376" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F376" s="9">
+      <c r="F376" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G376" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
         <v>4</v>
       </c>
@@ -9817,11 +11166,14 @@
       <c r="E377" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F377" s="9">
+      <c r="F377" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G377" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
         <v>4</v>
       </c>
@@ -9837,11 +11189,14 @@
       <c r="E378" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F378" s="9">
+      <c r="F378" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G378" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
         <v>4</v>
       </c>
@@ -9857,11 +11212,14 @@
       <c r="E379" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F379" s="9">
+      <c r="F379" s="6">
         <v>45</v>
       </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G379" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
         <v>4</v>
       </c>
@@ -9877,11 +11235,14 @@
       <c r="E380" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F380" s="9">
+      <c r="F380" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G380" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
         <v>4</v>
       </c>
@@ -9897,11 +11258,14 @@
       <c r="E381" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F381" s="9">
+      <c r="F381" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G381" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
         <v>4</v>
       </c>
@@ -9917,11 +11281,14 @@
       <c r="E382" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="F382" s="9">
+      <c r="F382" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G382" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
         <v>4</v>
       </c>
@@ -9937,11 +11304,14 @@
       <c r="E383" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F383" s="9">
+      <c r="F383" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G383" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
         <v>4</v>
       </c>
@@ -9957,11 +11327,14 @@
       <c r="E384" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="F384" s="9">
+      <c r="F384" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G384" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
         <v>4</v>
       </c>
@@ -9977,11 +11350,14 @@
       <c r="E385" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="F385" s="9">
+      <c r="F385" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G385" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
         <v>4</v>
       </c>
@@ -9997,11 +11373,14 @@
       <c r="E386" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F386" s="9">
+      <c r="F386" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G386" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
         <v>4</v>
       </c>
@@ -10017,11 +11396,14 @@
       <c r="E387" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F387" s="9">
+      <c r="F387" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G387" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
         <v>4</v>
       </c>
@@ -10037,11 +11419,14 @@
       <c r="E388" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="F388" s="9">
+      <c r="F388" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G388" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
         <v>4</v>
       </c>
@@ -10057,11 +11442,14 @@
       <c r="E389" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F389" s="9">
+      <c r="F389" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G389" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
         <v>4</v>
       </c>
@@ -10077,11 +11465,14 @@
       <c r="E390" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F390" s="9">
+      <c r="F390" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G390" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
         <v>4</v>
       </c>
@@ -10097,11 +11488,14 @@
       <c r="E391" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="F391" s="9">
+      <c r="F391" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G391" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
         <v>4</v>
       </c>
@@ -10117,11 +11511,14 @@
       <c r="E392" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F392" s="9">
+      <c r="F392" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G392" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
         <v>4</v>
       </c>
@@ -10137,11 +11534,14 @@
       <c r="E393" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="F393" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F393" s="6">
+        <v>4</v>
+      </c>
+      <c r="G393" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
         <v>4</v>
       </c>
@@ -10157,11 +11557,14 @@
       <c r="E394" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="F394" s="9">
+      <c r="F394" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G394" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
         <v>4</v>
       </c>
@@ -10177,11 +11580,14 @@
       <c r="E395" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="F395" s="9">
+      <c r="F395" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G395" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
         <v>4</v>
       </c>
@@ -10197,11 +11603,14 @@
       <c r="E396" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="F396" s="9">
+      <c r="F396" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G396" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
         <v>4</v>
       </c>
@@ -10217,11 +11626,14 @@
       <c r="E397" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F397" s="9">
+      <c r="F397" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G397" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
         <v>4</v>
       </c>
@@ -10237,11 +11649,14 @@
       <c r="E398" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F398" s="9">
+      <c r="F398" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G398" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
         <v>4</v>
       </c>
@@ -10257,11 +11672,14 @@
       <c r="E399" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F399" s="9">
+      <c r="F399" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G399" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
         <v>4</v>
       </c>
@@ -10277,11 +11695,14 @@
       <c r="E400" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F400" s="9">
+      <c r="F400" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G400" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
         <v>4</v>
       </c>
@@ -10297,11 +11718,14 @@
       <c r="E401" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="F401" s="9">
+      <c r="F401" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G401" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
         <v>4</v>
       </c>
@@ -10317,11 +11741,14 @@
       <c r="E402" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="F402" s="9">
+      <c r="F402" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G402" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
         <v>4</v>
       </c>
@@ -10337,11 +11764,14 @@
       <c r="E403" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F403" s="9">
+      <c r="F403" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G403" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
         <v>4</v>
       </c>
@@ -10357,11 +11787,14 @@
       <c r="E404" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="F404" s="9">
+      <c r="F404" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G404" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
         <v>4</v>
       </c>
@@ -10377,11 +11810,14 @@
       <c r="E405" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F405" s="9">
+      <c r="F405" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G405" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
         <v>4</v>
       </c>
@@ -10397,11 +11833,14 @@
       <c r="E406" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="F406" s="9">
+      <c r="F406" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G406" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
         <v>4</v>
       </c>
@@ -10417,11 +11856,14 @@
       <c r="E407" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="F407" s="9">
+      <c r="F407" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G407" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
         <v>4</v>
       </c>
@@ -10437,11 +11879,14 @@
       <c r="E408" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F408" s="9">
+      <c r="F408" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G408" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
         <v>4</v>
       </c>
@@ -10457,11 +11902,14 @@
       <c r="E409" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F409" s="9">
+      <c r="F409" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G409" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
         <v>4</v>
       </c>
@@ -10477,11 +11925,14 @@
       <c r="E410" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="F410" s="9">
+      <c r="F410" s="6">
         <v>63</v>
       </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G410" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
         <v>4</v>
       </c>
@@ -10497,11 +11948,14 @@
       <c r="E411" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F411" s="9">
+      <c r="F411" s="6">
         <v>608</v>
       </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G411" s="6">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
         <v>4</v>
       </c>
@@ -10517,11 +11971,14 @@
       <c r="E412" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F412" s="9">
+      <c r="F412" s="6">
         <v>366</v>
       </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G412" s="6">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
         <v>4</v>
       </c>
@@ -10537,11 +11994,14 @@
       <c r="E413" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F413" s="9">
+      <c r="F413" s="6">
         <v>172</v>
       </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G413" s="6">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
         <v>4</v>
       </c>
@@ -10557,11 +12017,14 @@
       <c r="E414" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="F414" s="9">
+      <c r="F414" s="6">
         <v>185</v>
       </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G414" s="6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
         <v>4</v>
       </c>
@@ -10577,11 +12040,14 @@
       <c r="E415" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F415" s="9">
+      <c r="F415" s="6">
         <v>403</v>
       </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G415" s="6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
         <v>4</v>
       </c>
@@ -10597,11 +12063,14 @@
       <c r="E416" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F416" s="9">
+      <c r="F416" s="6">
         <v>576</v>
       </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G416" s="6">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
         <v>4</v>
       </c>
@@ -10617,11 +12086,14 @@
       <c r="E417" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="F417" s="9">
+      <c r="F417" s="6">
         <v>457</v>
       </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G417" s="6">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
         <v>4</v>
       </c>
@@ -10637,11 +12109,14 @@
       <c r="E418" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F418" s="9">
+      <c r="F418" s="6">
         <v>117</v>
       </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G418" s="6">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
         <v>4</v>
       </c>
@@ -10657,11 +12132,14 @@
       <c r="E419" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F419" s="9">
+      <c r="F419" s="6">
         <v>434</v>
       </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G419" s="6">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>4</v>
       </c>
@@ -10677,11 +12155,14 @@
       <c r="E420" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="F420" s="9">
+      <c r="F420" s="6">
         <v>284</v>
       </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G420" s="6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>4</v>
       </c>
@@ -10697,11 +12178,14 @@
       <c r="E421" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F421" s="9">
+      <c r="F421" s="6">
         <v>491</v>
       </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G421" s="6">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>4</v>
       </c>
@@ -10717,11 +12201,14 @@
       <c r="E422" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="F422" s="9">
+      <c r="F422" s="6">
         <v>356</v>
       </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G422" s="6">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>4</v>
       </c>
@@ -10737,11 +12224,14 @@
       <c r="E423" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F423" s="9">
+      <c r="F423" s="6">
         <v>387</v>
       </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G423" s="6">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>4</v>
       </c>
@@ -10757,11 +12247,14 @@
       <c r="E424" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F424" s="9">
+      <c r="F424" s="6">
         <v>304</v>
       </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G424" s="6">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
         <v>4</v>
       </c>
@@ -10777,11 +12270,14 @@
       <c r="E425" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F425" s="9">
+      <c r="F425" s="6">
         <v>397</v>
       </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G425" s="6">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
         <v>4</v>
       </c>
@@ -10797,11 +12293,14 @@
       <c r="E426" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="F426" s="9">
+      <c r="F426" s="6">
         <v>949</v>
       </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G426" s="6">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
         <v>4</v>
       </c>
@@ -10817,11 +12316,14 @@
       <c r="E427" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="F427" s="9">
+      <c r="F427" s="6">
         <v>369</v>
       </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G427" s="6">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
         <v>4</v>
       </c>
@@ -10837,11 +12339,14 @@
       <c r="E428" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="F428" s="9">
+      <c r="F428" s="6">
         <v>293</v>
       </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G428" s="6">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>4</v>
       </c>
@@ -10857,11 +12362,14 @@
       <c r="E429" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F429" s="9">
+      <c r="F429" s="6">
         <v>513</v>
       </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G429" s="6">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>4</v>
       </c>
@@ -10877,11 +12385,14 @@
       <c r="E430" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="F430" s="9">
+      <c r="F430" s="6">
         <v>541</v>
       </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G430" s="6">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>4</v>
       </c>
@@ -10897,11 +12408,14 @@
       <c r="E431" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F431" s="9">
+      <c r="F431" s="6">
         <v>583</v>
       </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G431" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>4</v>
       </c>
@@ -10917,11 +12431,14 @@
       <c r="E432" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F432" s="9">
+      <c r="F432" s="6">
         <v>579</v>
       </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G432" s="6">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>4</v>
       </c>
@@ -10937,11 +12454,14 @@
       <c r="E433" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="F433" s="9">
+      <c r="F433" s="6">
         <v>546</v>
       </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G433" s="6">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
         <v>4</v>
       </c>
@@ -10957,11 +12477,14 @@
       <c r="E434" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="F434" s="9">
+      <c r="F434" s="6">
         <v>466</v>
       </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G434" s="6">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
         <v>4</v>
       </c>
@@ -10977,11 +12500,14 @@
       <c r="E435" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="F435" s="9">
+      <c r="F435" s="6">
         <v>367</v>
       </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G435" s="6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
         <v>4</v>
       </c>
@@ -10997,11 +12523,14 @@
       <c r="E436" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="F436" s="9">
+      <c r="F436" s="6">
         <v>809</v>
       </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G436" s="6">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>4</v>
       </c>
@@ -11017,11 +12546,14 @@
       <c r="E437" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="F437" s="9">
+      <c r="F437" s="6">
         <v>412</v>
       </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G437" s="6">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
         <v>5</v>
       </c>
@@ -11037,11 +12569,14 @@
       <c r="E438" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F438" s="9">
+      <c r="F438" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G438" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
         <v>5</v>
       </c>
@@ -11057,11 +12592,14 @@
       <c r="E439" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F439" s="9">
+      <c r="F439" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G439" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
         <v>5</v>
       </c>
@@ -11077,11 +12615,14 @@
       <c r="E440" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F440" s="9">
+      <c r="F440" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G440" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
         <v>5</v>
       </c>
@@ -11097,11 +12638,14 @@
       <c r="E441" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F441" s="9">
+      <c r="F441" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G441" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
         <v>5</v>
       </c>
@@ -11117,11 +12661,14 @@
       <c r="E442" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F442" s="9">
+      <c r="F442" s="6">
         <v>57</v>
       </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G442" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
         <v>5</v>
       </c>
@@ -11137,11 +12684,14 @@
       <c r="E443" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F443" s="9">
+      <c r="F443" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G443" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
         <v>5</v>
       </c>
@@ -11157,11 +12707,14 @@
       <c r="E444" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="F444" s="9">
+      <c r="F444" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G444" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
         <v>5</v>
       </c>
@@ -11177,11 +12730,14 @@
       <c r="E445" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F445" s="9">
+      <c r="F445" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G445" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
         <v>5</v>
       </c>
@@ -11197,11 +12753,14 @@
       <c r="E446" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="F446" s="9">
+      <c r="F446" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G446" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
         <v>5</v>
       </c>
@@ -11217,11 +12776,14 @@
       <c r="E447" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="F447" s="9">
+      <c r="F447" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G447" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
         <v>5</v>
       </c>
@@ -11237,11 +12799,14 @@
       <c r="E448" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F448" s="9">
+      <c r="F448" s="6">
         <v>27</v>
       </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G448" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
         <v>5</v>
       </c>
@@ -11257,11 +12822,14 @@
       <c r="E449" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="F449" s="9">
+      <c r="F449" s="6">
         <v>394</v>
       </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G449" s="6">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
         <v>5</v>
       </c>
@@ -11277,11 +12845,14 @@
       <c r="E450" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F450" s="9">
+      <c r="F450" s="6">
         <v>581</v>
       </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G450" s="6">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
         <v>5</v>
       </c>
@@ -11297,11 +12868,14 @@
       <c r="E451" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="F451" s="9">
+      <c r="F451" s="6">
         <v>253</v>
       </c>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G451" s="6">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
         <v>5</v>
       </c>
@@ -11317,11 +12891,14 @@
       <c r="E452" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="F452" s="9">
+      <c r="F452" s="6">
         <v>375</v>
       </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G452" s="6">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
         <v>5</v>
       </c>
@@ -11337,11 +12914,14 @@
       <c r="E453" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F453" s="9">
+      <c r="F453" s="6">
         <v>272</v>
       </c>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G453" s="6">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
         <v>5</v>
       </c>
@@ -11357,11 +12937,14 @@
       <c r="E454" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="F454" s="9">
+      <c r="F454" s="6">
         <v>340</v>
       </c>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G454" s="6">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
         <v>5</v>
       </c>
@@ -11377,12 +12960,108 @@
       <c r="E455" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="F455" s="9">
+      <c r="F455" s="6">
         <v>414</v>
       </c>
+      <c r="G455" s="6">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A456" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B456" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C456" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D456" s="6">
+        <v>54577</v>
+      </c>
+      <c r="E456" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F456" s="6">
+        <v>0</v>
+      </c>
+      <c r="G456" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A457" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B457" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C457" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D457" s="6">
+        <v>110722</v>
+      </c>
+      <c r="E457" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F457" s="6">
+        <v>0</v>
+      </c>
+      <c r="G457" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A458" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B458" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C458" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D458" s="6">
+        <v>16936</v>
+      </c>
+      <c r="E458" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F458" s="6">
+        <v>0</v>
+      </c>
+      <c r="G458" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A459" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B459" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C459" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D459" s="6">
+        <v>104790</v>
+      </c>
+      <c r="E459" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F459" s="6">
+        <v>0</v>
+      </c>
+      <c r="G459" s="6">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
